--- a/biology/Médecine/Semorinemab/Semorinemab.xlsx
+++ b/biology/Médecine/Semorinemab/Semorinemab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le semorinemab est un anticorps monoclonal thérapeutique, développé par AC Immune et Genentech. Il cible la protéine Tau, supposée responsable de la maladie d'Alzheimer.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AC Immune a été créé en 2003. Elle a réussi à trouver des fonds en 2006 pour s'intéresser au crenezumab, qui devait s'attaquer à la plaque Bêta-amyloïde, mais les études concernant ce produit ont été partiellement abandonnées en 2019[2],[3]. En parallèle, AC Immune a reçu des financements pour étudier semorinemab à partir de 2012[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Immune a été créé en 2003. Elle a réussi à trouver des fonds en 2006 pour s'intéresser au crenezumab, qui devait s'attaquer à la plaque Bêta-amyloïde, mais les études concernant ce produit ont été partiellement abandonnées en 2019,. En parallèle, AC Immune a reçu des financements pour étudier semorinemab à partir de 2012.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine Tau est attaquée en dehors des cellules[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine Tau est attaquée en dehors des cellules.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'essai clinique de phase II intitulé Tauriel sur des patients atteints de Alzheimer a été arrêté en septembre 2020, l'efficacité du produit n'ayant pas pu être démontrée[3].
-Un autre essai de phase II intitulé Lauriet a été mené sur 272 patients ayant des formes modérées de Alzheimer. Il a démontré une réduction de 43% du déclin cognitif des patients, comparé à celui des patients ayant reçu le placebo[4]. La tolérabilité du produit a aussi été démontrée. Par contre, le déclin fonctionnel des patients n'a pas été ralenti[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essai clinique de phase II intitulé Tauriel sur des patients atteints de Alzheimer a été arrêté en septembre 2020, l'efficacité du produit n'ayant pas pu être démontrée.
+Un autre essai de phase II intitulé Lauriet a été mené sur 272 patients ayant des formes modérées de Alzheimer. Il a démontré une réduction de 43% du déclin cognitif des patients, comparé à celui des patients ayant reçu le placebo. La tolérabilité du produit a aussi été démontrée. Par contre, le déclin fonctionnel des patients n'a pas été ralenti.
 </t>
         </is>
       </c>
